--- a/biology/Botanique/Opuntia_cochenillifera/Opuntia_cochenillifera.xlsx
+++ b/biology/Botanique/Opuntia_cochenillifera/Opuntia_cochenillifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia cochenillifera est une espèce de plantes à fleurs de la famille des Cactaceae. 
 La première description a été faite en 1753 par Carl Linnaeus, sous le nom de Cactus cochenillifer. Philip Miller l’a rebaptisée Opuntia cochenillifera en 1768.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste succulent à feuilles persistantes ou un petit arbre de 4 à 5 m de haut avec un fût pouvant atteindre 20 cm de diamètre. Les tiges sont principalement dépourvues d’épines, probablement du à un élevage sélectif pour rendre les plantes plus faciles à récolter[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste succulent à feuilles persistantes ou un petit arbre de 4 à 5 m de haut avec un fût pouvant atteindre 20 cm de diamètre. Les tiges sont principalement dépourvues d’épines, probablement du à un élevage sélectif pour rendre les plantes plus faciles à récolter.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aire de répartition indigène de cette espèce est le Mexique. Il pousse principalement dans le désert ou le biome des arbustes secs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aire de répartition indigène de cette espèce est le Mexique. Il pousse principalement dans le désert ou le biome des arbustes secs.
 Il est également présent maintenant en Amérique centrale, à Panama, aux Caraïbes, à Cuba et à Porto Rico.
-On le trouve dans les champs et les sols sablonneux[1].
+On le trouve dans les champs et les sols sablonneux.
 </t>
         </is>
       </c>
@@ -576,12 +592,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbuste succulent. Il est utilisé comme aliment pour animaux, médicament et nourriture pour les invertébrés. Il a aussi des utilisations environnementales et pour l’alimentation[2].
-La plante a des fruits et des tiges comestibles, qui sont cueillis dans la nature pour un usage local. Dans le passé, la plante était souvent cultivée comme plante hôte pour les cochenilles Dactylopius coccus. Ces insectes étaient ensuite récoltés, tués et transformés en cochenille à colorant rouge. Les colorants synthétiques ont presque totalement usurpé cet usage, bien que la plante soit encore souvent cultivée, mais uniquement comme plante ornementale et de haie[1].
-Dangers connus
-Les espèces de ce genre ont généralement de nombreux glochides (poils) finement barbelés qui sont facilement délogés lorsque la plante est touchée et ils se collent ensuite à la peau où ils sont difficiles à voir et à enlever. Ils peuvent causer un inconfort considérable[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbuste succulent. Il est utilisé comme aliment pour animaux, médicament et nourriture pour les invertébrés. Il a aussi des utilisations environnementales et pour l’alimentation.
+La plante a des fruits et des tiges comestibles, qui sont cueillis dans la nature pour un usage local. Dans le passé, la plante était souvent cultivée comme plante hôte pour les cochenilles Dactylopius coccus. Ces insectes étaient ensuite récoltés, tués et transformés en cochenille à colorant rouge. Les colorants synthétiques ont presque totalement usurpé cet usage, bien que la plante soit encore souvent cultivée, mais uniquement comme plante ornementale et de haie.
 </t>
         </is>
       </c>
@@ -607,12 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie</t>
+          <t>Utilisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contrairement à la plupart des espèces d’Opuntia, O. cochenillifera est pollinisé par les colibris[3],[4].
+          <t>Dangers connus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont généralement de nombreux glochides (poils) finement barbelés qui sont facilement délogés lorsque la plante est touchée et ils se collent ensuite à la peau où ils sont difficiles à voir et à enlever. Ils peuvent causer un inconfort considérable.
 </t>
         </is>
       </c>
@@ -638,15 +660,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à la plupart des espèces d’Opuntia, O. cochenillifera est pollinisé par les colibris,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Opuntia_cochenillifera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Opuntia_cochenillifera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Opuntia cochenillifera (L.) Mill.[5].
-L'espèce a été initialement classée dans le genre Cactus sous le basionyme Cactus cochenillifer L.[5].
-Dénommé également raquette plate. Ce taxon porte en français aussi les noms vernaculaires ou normalisés suivants :  nopal[6], rachette[6] et figuier de Barbarie[7] qui est aussi le nom de Opuntia ficus-indica,
-Opuntia cochenillifera a pour synonymes[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Opuntia cochenillifera (L.) Mill..
+L'espèce a été initialement classée dans le genre Cactus sous le basionyme Cactus cochenillifer L..
+Dénommé également raquette plate. Ce taxon porte en français aussi les noms vernaculaires ou normalisés suivants :  nopal, rachette et figuier de Barbarie qui est aussi le nom de Opuntia ficus-indica,
+Opuntia cochenillifera a pour synonymes :
 Cactus campechianus Thierry ex Steud.
 Cactus coccinellifer Steud.
 Cactus cochenillifer L.
